--- a/Study 2 Materials/study-2-scales.xlsx
+++ b/Study 2 Materials/study-2-scales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\RESEARCH PROJECTS\conspiracy-belief-special-issue\Scales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\RESEARCH PROJECTS\conspiracy-belief-special-issue\Study 2 Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5149C0-C7A2-40B6-8802-62E4C48504B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03E47D-D2AA-471E-B823-A9277FEA2230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
